--- a/デバックバグリスト.xlsx
+++ b/デバックバグリスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\K016A1743\TeamWork1\branches\branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\チームワーク\TeamWork.git\branches\branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7490" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="デバックシート" sheetId="3" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -434,6 +434,47 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹木の半マス以内に近づくと投げた火が上から落ちる</t>
+    <rPh sb="0" eb="2">
+      <t>ジュモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あたり判定問題だと思う</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1248,16 +1289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="6" max="6" width="44.875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="45.08203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1266,12 +1307,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" thickBot="1">
+    <row r="2" spans="1:8" ht="18.5" thickBot="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" thickBot="1">
+    <row r="3" spans="1:8" ht="18.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1358,7 +1399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" thickBot="1">
+    <row r="10" spans="1:8" ht="18.5" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1370,8 +1411,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1"/>
-    <row r="13" spans="1:8" s="1" customFormat="1" thickBot="1">
+    <row r="12" spans="1:8" ht="18.5" thickBot="1"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="37.5">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1423,7 +1464,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="37.5">
+    <row r="15" spans="1:8" ht="36">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1477,13 +1518,27 @@
       <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42753</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">

--- a/デバックバグリスト.xlsx
+++ b/デバックバグリスト.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -466,15 +466,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あたり判定問題だと思う</t>
+    <t>Player乗ってる時気球はPlayerを連れてブロックに貫通する</t>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キキュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気球とブロックのあたり判定がないため</t>
+    <rPh sb="0" eb="2">
+      <t>キキュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あたり判定問題</t>
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>モンダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1290,7 +1316,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1534,23 +1560,37 @@
         <v>30</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17" s="13">
         <v>42753</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="36">
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42753</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">

--- a/デバックバグリスト.xlsx
+++ b/デバックバグリスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\チームワーク\TeamWork.git\branches\branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanashi Ryuta\Desktop\火Project\branches\branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -501,6 +501,50 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Playerの１つ上にブロックが存在し、その先にブロックがあるとき火を投げると上にめり込む</t>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あたり判定問題（暫定的に真横から出している）</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ザンテイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マヨコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1316,7 +1360,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1592,17 +1636,31 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="36">
       <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="13">
+        <v>42753</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">

--- a/デバックバグリスト.xlsx
+++ b/デバックバグリスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanashi Ryuta\Desktop\火Project\branches\branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaito\Desktop\Teamwork\branches\branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7490" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7493" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="デバックシート" sheetId="3" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -545,6 +545,48 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮修正</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火力０状態のときに藁に触れても藁が燃える</t>
+    <rPh sb="0" eb="2">
+      <t>カリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数を使用していない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1359,16 +1401,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="45.08203125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="45.0625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.5625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1377,12 +1419,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.5" thickBot="1">
+    <row r="2" spans="1:8" ht="18" thickBot="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.5" thickBot="1">
+    <row r="3" spans="1:8" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1487,9 @@
       <c r="B7" s="7">
         <v>0.25</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.5" thickBot="1">
+    <row r="10" spans="1:8" ht="18" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1481,8 +1525,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1"/>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="18" thickBot="1"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1578,7 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36">
+    <row r="15" spans="1:8" ht="35.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1545,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1610,7 +1654,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36">
+    <row r="18" spans="1:8" ht="35.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -1636,7 +1680,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="36">
+    <row r="19" spans="1:8" ht="35.25">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1647,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1666,13 +1710,27 @@
       <c r="A20" s="2">
         <v>7</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42760</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
